--- a/Components/Jacdac_3D_Magnetometer_BOM.xlsx
+++ b/Components/Jacdac_3D_Magnetometer_BOM.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-3D-Magnetometer\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E905E9-3903-476E-A9A8-876068A3F396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B46C4A-D047-4986-A8D1-C055695A6A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="510" windowWidth="11370" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jacdac-3D-Magnetometer" sheetId="1" r:id="rId1"/>
+    <sheet name="RevB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Index</t>
   </si>
@@ -307,6 +308,15 @@
   </si>
   <si>
     <t>3D-MAGNETOMETER</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/STM32G030F6P6/10326686</t>
+  </si>
+  <si>
+    <t>STM32G030F6P6</t>
+  </si>
+  <si>
+    <t>497-STM32G030F6P6-ND</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,8 +1713,8 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f>SUM(I2:I14)</f>
-        <v>12.840000000000003</v>
+        <f>SUM(I2:I15)</f>
+        <v>15.470000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1724,4 +1734,547 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43278F0E-4F1D-41EF-96D6-B569B0A7AA6A}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I14" si="0">H2*B2</f>
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6*B6</f>
+        <v>1.91</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3.27</v>
+      </c>
+      <c r="I8" s="1">
+        <f>H8*B8</f>
+        <v>3.27</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <f>H12*B12</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.12</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.63</v>
+      </c>
+      <c r="I15" s="1">
+        <f>H15*B15</f>
+        <v>2.63</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1">
+        <f>SUM(I2:I15)</f>
+        <v>12.719999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{9645D30E-4F86-40CE-816E-5FEF3C933BE7}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{AF55FE0D-0ADC-4723-BA83-DC9B9DFC2451}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{1EB29278-DFE6-4930-89ED-39F13831759F}"/>
+    <hyperlink ref="J9" r:id="rId4" xr:uid="{7EAF917D-7613-4FDF-90EA-3C51502B9D91}"/>
+    <hyperlink ref="J14" r:id="rId5" xr:uid="{F2D33204-A45B-44B9-8D60-60332EA666A1}"/>
+    <hyperlink ref="J12" r:id="rId6" xr:uid="{4AFFA670-1530-4F0D-BB2E-6E3EF3A84FB4}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{CBD41E2D-2113-4C01-96CA-AD163ADBC76B}"/>
+    <hyperlink ref="J13" r:id="rId8" xr:uid="{9C2B7D7F-D571-44AF-A302-EE83F7139A4E}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{4D84CADC-307A-4420-A6BD-BFE825B78FB9}"/>
+    <hyperlink ref="J3" r:id="rId10" xr:uid="{142B14EE-7763-43E7-965D-2F9E8C0977C3}"/>
+    <hyperlink ref="J8" r:id="rId11" xr:uid="{F4262FC8-22D2-4EAD-A04D-A810325351C8}"/>
+    <hyperlink ref="J10" r:id="rId12" xr:uid="{137FA423-FB76-41CB-A703-69B44F443109}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Components/Jacdac_3D_Magnetometer_BOM.xlsx
+++ b/Components/Jacdac_3D_Magnetometer_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-3D-Magnetometer\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B46C4A-D047-4986-A8D1-C055695A6A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23C6FF0-3A3E-4356-A80B-DFA61F87703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jacdac-3D-Magnetometer" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
   <si>
     <t>Index</t>
   </si>
@@ -82,27 +82,6 @@
     <t>Total Price (CAD)</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RC0805JR-074K7L/728327</t>
-  </si>
-  <si>
-    <t>RES 4.7K OHM 5% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>RC0805JR-074K7L</t>
-  </si>
-  <si>
-    <t>311-4.7KARCT-ND</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 25V X7R 0805</t>
-  </si>
-  <si>
-    <t>08053C104KAT2A</t>
-  </si>
-  <si>
-    <t>478-3755-1-ND</t>
-  </si>
-  <si>
     <t>R1,R2</t>
   </si>
   <si>
@@ -124,57 +103,30 @@
     <t>U4</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/on-semiconductor/NCP114ASN330T1G/6560605</t>
-  </si>
-  <si>
-    <t>NCP114ASN330T1GOSCT-ND</t>
-  </si>
-  <si>
     <t>NCP114ASN330T1G</t>
   </si>
   <si>
     <t>IC REG LINEAR 3.3V 300MA 5TSOP</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/STM32F042F6P6/5268189</t>
-  </si>
-  <si>
     <t>IC MCU 32BIT 32KB FLASH 20TSSOP</t>
   </si>
   <si>
     <t>STM32F042F6P6</t>
   </si>
   <si>
-    <t>497-17344-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/nexperia-usa-inc/BAT54S-235/1232122</t>
-  </si>
-  <si>
     <t>DIODE ARRAY SCHOTTKY 30V SOT23</t>
   </si>
   <si>
-    <t>1727-1868-1-ND</t>
-  </si>
-  <si>
     <t>BAT54S,235</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/semtech-corporation/RCLAMP0521P-TCT/1833954</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/broadcom-limited/HSMF-C114/1235344</t>
   </si>
   <si>
     <t>TVS DIODE 5VWM 25VC SLP1006P2</t>
   </si>
   <si>
-    <t>RCLAMP0521P.TCT</t>
-  </si>
-  <si>
-    <t>RCLAMP0521PCT-ND</t>
-  </si>
-  <si>
     <t>RCLAMP0521P</t>
   </si>
   <si>
@@ -184,99 +136,30 @@
     <t>HSMF-C114</t>
   </si>
   <si>
-    <t xml:space="preserve">516-1795-1-ND </t>
-  </si>
-  <si>
     <t xml:space="preserve">RGB LED </t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/avx-corporation/08053C104KAT2A/1116281?</t>
-  </si>
-  <si>
     <t>FB1</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/vishay-dale/CRCW0805220RJNEB/5074408</t>
-  </si>
-  <si>
-    <t>RES SMD 220 OHM 5% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>CRCW0805220RJNEB</t>
-  </si>
-  <si>
-    <t>541-CRCW0805220RJNEBCT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/tdk-corporation/KPZ1608SHR102ATD25/7104424</t>
-  </si>
-  <si>
     <t>FERRITE BEAD 1 KOHM 0603 1LN</t>
   </si>
   <si>
-    <t>KPZ1608SHR102ATD25</t>
-  </si>
-  <si>
-    <t>445-175021-1-ND</t>
-  </si>
-  <si>
     <t>800mA 1kR</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/kemet/C0603C330M5HAC7867/7947133</t>
-  </si>
-  <si>
     <t>CAP CER 0603 33PF 50V ULTRA STAB</t>
   </si>
   <si>
     <t>33pF</t>
   </si>
   <si>
-    <t>C0603C330M5HAC7867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399-C0603C330M5HAC7867CT-ND </t>
-  </si>
-  <si>
-    <t>RES 150 OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/vishay-dale/CRCW0805150RFKEAC/7922303</t>
-  </si>
-  <si>
-    <t>CRCW0805150RFKEAC</t>
-  </si>
-  <si>
-    <t>541-CRCW0805150RFKEACCT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RC0805FR-0730RL/727842</t>
-  </si>
-  <si>
-    <t>RC0805FR-0730RL</t>
-  </si>
-  <si>
-    <t>RES 30 OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>311-30.0CRCT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/avx-corporation/0603YD105KAT2A/563359</t>
-  </si>
-  <si>
-    <t>0603YD105KAT2A</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
     <t>CAP CER 1UF 16V X5R 0603</t>
   </si>
   <si>
-    <t>478-1249-1-ND</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
@@ -301,22 +184,139 @@
     <t>TLV493DA1B6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 726-TLV493DA1B6HTSA2 </t>
-  </si>
-  <si>
-    <t>Digikey/Mouser Part Number</t>
-  </si>
-  <si>
     <t>3D-MAGNETOMETER</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/STM32G030F6P6/10326686</t>
-  </si>
-  <si>
     <t>STM32G030F6P6</t>
   </si>
   <si>
-    <t>497-STM32G030F6P6-ND</t>
+    <t>C136965</t>
+  </si>
+  <si>
+    <t>RT0603BRD0730RL</t>
+  </si>
+  <si>
+    <t>RES 30 OHM 1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-span-style-background-color-ff0-Resistor-span-Surface-Mount_YAGEO-RT0603BRD0730RL_C136965.html</t>
+  </si>
+  <si>
+    <t>C319859</t>
+  </si>
+  <si>
+    <t>AR03BTCX1500</t>
+  </si>
+  <si>
+    <t>RES 150 OHM 1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR03BTCX1500_C319859.html</t>
+  </si>
+  <si>
+    <t>C318124</t>
+  </si>
+  <si>
+    <t>AR03BTCX2200</t>
+  </si>
+  <si>
+    <t>RES SMD 220 OHM 5% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR03BTCX2200_C318124.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/ST-Microelectronics_STMicroelectronics-STM32F042F6P6_C81000.html</t>
+  </si>
+  <si>
+    <t>C81000</t>
+  </si>
+  <si>
+    <t>C503463</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Pre-ordered-transistors_Nexperia-BAT54S-235_C503463.html</t>
+  </si>
+  <si>
+    <t>C193411</t>
+  </si>
+  <si>
+    <t>MPZ1608S102ATD25</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Ferrite-Beads_TDK-MPZ1608S102ATD25_C193411.html</t>
+  </si>
+  <si>
+    <t>C2827711</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/ESD-Protection-Devices_TECH-PUBLIC-RCLAMP0521P_C2827711.html</t>
+  </si>
+  <si>
+    <t>C519485</t>
+  </si>
+  <si>
+    <t>CC0603FRNPO9BN330</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0603FRNPO9BN330_C519485.html</t>
+  </si>
+  <si>
+    <t>Digikey/Mouser/LCSC Part Number</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Magnetic-Sensors_Infineon-Technologies-TLV493DA1B6HTSA2_C126688.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 726-TLV493DA1B6HTSA2 /C126688</t>
+  </si>
+  <si>
+    <t>NCP114ASN330T1GOSCT-ND/C457666</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_onsemi-NCP114ASN330T1G_C457666.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RT0603FRE074K7L_C700513.html</t>
+  </si>
+  <si>
+    <t>RES 4.7K OHM 1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>C700513</t>
+  </si>
+  <si>
+    <t>RT0603FRE074K7L</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0603JRX7R7BB105_C519560.html</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R7BB105</t>
+  </si>
+  <si>
+    <t>C519560</t>
+  </si>
+  <si>
+    <t>516-1795-1-ND /C97504</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_KEMET-C0603C104M3RACAUTO_C1845757.html</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 25V X7R 0603</t>
+  </si>
+  <si>
+    <t>C0603C104M3RACAUTO</t>
+  </si>
+  <si>
+    <t>C1845757</t>
+  </si>
+  <si>
+    <t>C724040</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/ST-Microelectronics_STMicroelectronics-STM32G030F6P6_C724040.html</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -784,6 +784,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -830,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -839,6 +848,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1195,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1225,7 @@
     <col min="10" max="10" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1239,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1246,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1254,32 +1265,32 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1">
-        <v>0.15</v>
+        <v>3.44E-2</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I14" si="0">H2*B2</f>
-        <v>0.3</v>
+        <f>H2*B2</f>
+        <v>6.88E-2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1290,29 +1301,29 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1">
-        <v>0.15</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
+        <f t="shared" ref="I3:I4" si="0">H3*B3</f>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1323,29 +1334,29 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1">
-        <v>0.15</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1359,26 +1370,26 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1">
-        <v>0.15</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" ref="I5:I11" si="1">H5*B5</f>
+        <v>1.78E-2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1389,29 +1400,29 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1">
-        <v>4.66</v>
+        <v>7.33</v>
       </c>
       <c r="I6" s="1">
         <f>H6*B6</f>
-        <v>4.66</v>
+        <v>7.33</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1419,32 +1430,32 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.23519999999999999</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.23519999999999999</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1452,19 +1463,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1">
         <v>3.27</v>
@@ -1474,10 +1485,13 @@
         <v>3.27</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1485,32 +1499,32 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" ref="I9" si="2">H9*B9</f>
+        <v>0.03</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1518,32 +1532,32 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1">
-        <v>0.18</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
+        <f t="shared" si="1"/>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1551,32 +1565,32 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1">
-        <v>0.14000000000000001</v>
+        <v>1.77E-2</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.77E-2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1584,32 +1598,32 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1">
-        <v>0.14000000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I12" s="1">
         <f>H12*B12</f>
-        <v>0.14000000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1617,32 +1631,32 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1">
-        <v>0.3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" ref="I13:I15" si="3">H13*B13</f>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1650,32 +1664,32 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1">
-        <v>1.06</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>2.12</v>
+        <f t="shared" si="3"/>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1683,19 +1697,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H15" s="1">
         <v>2.63</v>
@@ -1705,8 +1719,10 @@
         <v>2.63</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
@@ -1714,23 +1730,26 @@
       </c>
       <c r="I18" s="1">
         <f>SUM(I2:I15)</f>
-        <v>15.470000000000002</v>
+        <v>13.8857</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J6" r:id="rId1" xr:uid="{303FD325-93A2-4122-A17E-C111FE863494}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{45ABB9EA-EB9F-4A28-9ABF-7C64A3A6F5DB}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{9E0D8D76-48CA-4E86-B954-83F584984FBF}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{D29A8DD9-A9DA-423A-89F6-1572B5E95308}"/>
-    <hyperlink ref="J14" r:id="rId5" xr:uid="{BE0278AA-8F15-453A-8705-82A5A09BACB2}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{4A19B154-56CF-43D7-BB3F-0EC4294EE8C9}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{5F3681DE-D292-44D4-9A84-E6BFB5A5DE92}"/>
-    <hyperlink ref="J13" r:id="rId8" xr:uid="{91D92F31-CA23-4FA3-AA47-2EA6A9956017}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{121F1F51-57F5-4FE9-9041-9EAA3A6F160B}"/>
-    <hyperlink ref="J3" r:id="rId10" xr:uid="{2074E78E-7951-40C0-BF60-DF4399090BDD}"/>
-    <hyperlink ref="J8" r:id="rId11" xr:uid="{70850A71-5622-4387-ADA1-C241627D2542}"/>
-    <hyperlink ref="J10" r:id="rId12" xr:uid="{4A5D4C2F-27FB-44B7-AE53-8255865EBABA}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{9E0D8D76-48CA-4E86-B954-83F584984FBF}"/>
+    <hyperlink ref="J12" r:id="rId3" xr:uid="{4A19B154-56CF-43D7-BB3F-0EC4294EE8C9}"/>
+    <hyperlink ref="J8" r:id="rId4" xr:uid="{70850A71-5622-4387-ADA1-C241627D2542}"/>
+    <hyperlink ref="J10" r:id="rId5" xr:uid="{4A5D4C2F-27FB-44B7-AE53-8255865EBABA}"/>
+    <hyperlink ref="J2" r:id="rId6" xr:uid="{4CEA6238-23E3-4319-AC4F-87AAE1BC7D75}"/>
+    <hyperlink ref="J3" r:id="rId7" xr:uid="{EA9B43DB-917A-4D61-8913-5083BADCA341}"/>
+    <hyperlink ref="J4" r:id="rId8" xr:uid="{6A319806-0E98-43F5-A5DA-5BFAC8B078AE}"/>
+    <hyperlink ref="J9" r:id="rId9" xr:uid="{BBEB3DE9-1ECF-4006-A320-F7BE0B119D28}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{14E43CB6-9739-4A1C-BE2D-30D8E5A3D0E2}"/>
+    <hyperlink ref="J14" r:id="rId11" xr:uid="{6FBD0C85-640E-4F2F-AD09-168007A7D173}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{9BB97A78-9650-4FA7-A786-A09D76086A2E}"/>
+    <hyperlink ref="J15" r:id="rId13" xr:uid="{FEB1D7D4-F2B3-4401-B347-8C054A86AE74}"/>
+    <hyperlink ref="K8" r:id="rId14" xr:uid="{70581A43-FBAB-45D2-862F-E60BBBBD361B}"/>
+    <hyperlink ref="J7" r:id="rId15" display="https://www.digikey.ca/en/products/detail/on-semiconductor/NCP114ASN330T1G/6560605" xr:uid="{45ABB9EA-EB9F-4A28-9ABF-7C64A3A6F5DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1738,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43278F0E-4F1D-41EF-96D6-B569B0A7AA6A}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1776,7 @@
     <col min="10" max="10" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1789,7 +1808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1797,32 +1816,32 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1">
-        <v>0.15</v>
+        <v>3.44E-2</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I14" si="0">H2*B2</f>
-        <v>0.3</v>
+        <f>H2*B2</f>
+        <v>6.88E-2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1833,29 +1852,29 @@
         <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1">
-        <v>0.15</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
+        <f t="shared" ref="I3:I11" si="0">H3*B3</f>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1866,29 +1885,29 @@
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1">
-        <v>0.15</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1902,26 +1921,26 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="H5" s="1">
-        <v>0.15</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>1.78E-2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1932,29 +1951,29 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1">
-        <v>1.91</v>
+        <v>0.98</v>
       </c>
       <c r="I6" s="1">
         <f>H6*B6</f>
-        <v>1.91</v>
+        <v>0.98</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1962,32 +1981,32 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.23519999999999999</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
+        <v>0.23519999999999999</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1995,19 +2014,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1">
         <v>3.27</v>
@@ -2017,10 +2036,13 @@
         <v>3.27</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2028,32 +2050,32 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" ref="I9" si="1">H9*B9</f>
+        <v>0.03</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2061,32 +2083,32 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1">
-        <v>0.18</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2094,32 +2116,32 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1">
-        <v>0.14000000000000001</v>
+        <v>1.77E-2</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>1.77E-2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2127,32 +2149,32 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1">
-        <v>0.14000000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I12" s="1">
         <f>H12*B12</f>
-        <v>0.14000000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2160,32 +2182,32 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1">
-        <v>0.3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <f t="shared" ref="I13:I15" si="2">H13*B13</f>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2193,32 +2215,32 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1">
-        <v>1.06</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>2.12</v>
+        <f t="shared" si="2"/>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2226,19 +2248,19 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H15" s="1">
         <v>2.63</v>
@@ -2248,8 +2270,10 @@
         <v>2.63</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
@@ -2257,23 +2281,26 @@
       </c>
       <c r="I18" s="1">
         <f>SUM(I2:I15)</f>
-        <v>12.719999999999999</v>
+        <v>7.5357000000000003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" xr:uid="{9645D30E-4F86-40CE-816E-5FEF3C933BE7}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{AF55FE0D-0ADC-4723-BA83-DC9B9DFC2451}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{1EB29278-DFE6-4930-89ED-39F13831759F}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{7EAF917D-7613-4FDF-90EA-3C51502B9D91}"/>
-    <hyperlink ref="J14" r:id="rId5" xr:uid="{F2D33204-A45B-44B9-8D60-60332EA666A1}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{4AFFA670-1530-4F0D-BB2E-6E3EF3A84FB4}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{CBD41E2D-2113-4C01-96CA-AD163ADBC76B}"/>
-    <hyperlink ref="J13" r:id="rId8" xr:uid="{9C2B7D7F-D571-44AF-A302-EE83F7139A4E}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{4D84CADC-307A-4420-A6BD-BFE825B78FB9}"/>
-    <hyperlink ref="J3" r:id="rId10" xr:uid="{142B14EE-7763-43E7-965D-2F9E8C0977C3}"/>
-    <hyperlink ref="J8" r:id="rId11" xr:uid="{F4262FC8-22D2-4EAD-A04D-A810325351C8}"/>
-    <hyperlink ref="J10" r:id="rId12" xr:uid="{137FA423-FB76-41CB-A703-69B44F443109}"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{72B582D4-C033-4B75-8743-9C76D5ECE502}"/>
+    <hyperlink ref="J12" r:id="rId2" xr:uid="{FE6EA709-D55E-41DD-BF23-C8F1D308F0A6}"/>
+    <hyperlink ref="J8" r:id="rId3" xr:uid="{F6984F92-2931-441E-98B7-524C381CD989}"/>
+    <hyperlink ref="J10" r:id="rId4" xr:uid="{1AED0F0E-3B67-4C9A-9543-75A6258585F6}"/>
+    <hyperlink ref="J2" r:id="rId5" xr:uid="{58233E90-AFA3-4C85-98B8-D64D152EC3E8}"/>
+    <hyperlink ref="J3" r:id="rId6" xr:uid="{508C5029-B97E-455B-A335-8231E33BDE0B}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{FA19DDEB-488B-4D0E-AC76-7EFDA72CEDE9}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{C3EB796B-628C-4470-9E52-76544F355A22}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{427AE8A0-DA6B-461C-8410-681A7D5505A8}"/>
+    <hyperlink ref="J14" r:id="rId10" xr:uid="{3804EBA9-BBCC-4D7A-AF18-60559153CF2D}"/>
+    <hyperlink ref="J13" r:id="rId11" xr:uid="{01FEA6BF-06EE-4B18-9344-2A100B93009C}"/>
+    <hyperlink ref="J15" r:id="rId12" xr:uid="{F4DB6A34-E7E0-4016-B676-377212E3E147}"/>
+    <hyperlink ref="K8" r:id="rId13" xr:uid="{5F5BE1C5-E780-43CD-A79E-3431C36D8A75}"/>
+    <hyperlink ref="J7" r:id="rId14" display="https://www.digikey.ca/en/products/detail/on-semiconductor/NCP114ASN330T1G/6560605" xr:uid="{546FD292-A49B-4482-B45F-1FEFE661BFE5}"/>
+    <hyperlink ref="J6" r:id="rId15" xr:uid="{E58541F8-329D-44F3-BE17-DDA089A4DA84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Jacdac_3D_Magnetometer_BOM.xlsx
+++ b/Components/Jacdac_3D_Magnetometer_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-3D-Magnetometer\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23C6FF0-3A3E-4356-A80B-DFA61F87703F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29EAED8-3C96-4508-AAA1-5D3B94C96ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jacdac-3D-Magnetometer" sheetId="1" r:id="rId1"/>
+    <sheet name="RevA" sheetId="1" r:id="rId1"/>
     <sheet name="RevB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
   <si>
     <t>Index</t>
   </si>
@@ -317,6 +317,69 @@
   </si>
   <si>
     <t>https://lcsc.com/product-detail/ST-Microelectronics_STMicroelectronics-STM32G030F6P6_C724040.html</t>
+  </si>
+  <si>
+    <t>C3015484</t>
+  </si>
+  <si>
+    <t>XC6206-3.3V</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V SOT-23</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_YONGYUTAI-XC6206-3-3V_C3015484.html</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t>C374403</t>
+  </si>
+  <si>
+    <t>AR03BTC4700</t>
+  </si>
+  <si>
+    <t>RES 470 OHM 0.1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR03BTC4700_C374403.html</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3,R4</t>
+  </si>
+  <si>
+    <t>C108793</t>
+  </si>
+  <si>
+    <t>FM-B2020RGBA-HG</t>
+  </si>
+  <si>
+    <t>LED RGB CHIP SMD</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-FM-B2020RGBA-HG_C108793.html</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>C342959</t>
+  </si>
+  <si>
+    <t>C1608X7S1A475KT000E</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_TDK-C1608X7S1A475KT000E_C342959.html</t>
   </si>
 </sst>
 </file>
@@ -839,7 +902,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -850,6 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1209,7 +1273,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A1:XFD15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1713,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13:I15" si="3">H13*B13</f>
+        <f t="shared" ref="I13:I14" si="3">H13*B13</f>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -1757,10 +1821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43278F0E-4F1D-41EF-96D6-B569B0A7AA6A}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1840,7 @@
     <col min="10" max="10" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1808,40 +1872,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1">
-        <v>3.44E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="I2" s="1">
         <f>H2*B2</f>
-        <v>6.88E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1849,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -1874,7 +1938,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1882,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -1907,7 +1971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1940,7 +2004,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1973,7 +2037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1984,29 +2048,29 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="H7" s="1">
-        <v>0.23519999999999999</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>0.23519999999999999</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2038,11 +2102,11 @@
       <c r="J8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2068,14 +2132,14 @@
         <v>0.03</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9" si="1">H9*B9</f>
+        <f t="shared" ref="I9:I11" si="1">H9*B9</f>
         <v>0.03</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2086,29 +2150,29 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="H10" s="1">
-        <v>2.8400000000000002E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>8.5199999999999998E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.14400000000000002</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2134,14 +2198,14 @@
         <v>1.77E-2</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.77E-2</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2174,7 +2238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2200,15 +2264,15 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13:I15" si="2">H13*B13</f>
+        <f t="shared" ref="I13:I14" si="2">H13*B13</f>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -2240,7 +2304,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2254,26 +2318,24 @@
         <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="H15" s="1">
-        <v>2.63</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="I15" s="1">
         <f>H15*B15</f>
-        <v>2.63</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+        <v>110</v>
+      </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
@@ -2281,26 +2343,26 @@
       </c>
       <c r="I18" s="1">
         <f>SUM(I2:I15)</f>
-        <v>7.5357000000000003</v>
+        <v>4.7618</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{72B582D4-C033-4B75-8743-9C76D5ECE502}"/>
-    <hyperlink ref="J12" r:id="rId2" xr:uid="{FE6EA709-D55E-41DD-BF23-C8F1D308F0A6}"/>
-    <hyperlink ref="J8" r:id="rId3" xr:uid="{F6984F92-2931-441E-98B7-524C381CD989}"/>
-    <hyperlink ref="J10" r:id="rId4" xr:uid="{1AED0F0E-3B67-4C9A-9543-75A6258585F6}"/>
-    <hyperlink ref="J2" r:id="rId5" xr:uid="{58233E90-AFA3-4C85-98B8-D64D152EC3E8}"/>
-    <hyperlink ref="J3" r:id="rId6" xr:uid="{508C5029-B97E-455B-A335-8231E33BDE0B}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{FA19DDEB-488B-4D0E-AC76-7EFDA72CEDE9}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{C3EB796B-628C-4470-9E52-76544F355A22}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{427AE8A0-DA6B-461C-8410-681A7D5505A8}"/>
-    <hyperlink ref="J14" r:id="rId10" xr:uid="{3804EBA9-BBCC-4D7A-AF18-60559153CF2D}"/>
-    <hyperlink ref="J13" r:id="rId11" xr:uid="{01FEA6BF-06EE-4B18-9344-2A100B93009C}"/>
-    <hyperlink ref="J15" r:id="rId12" xr:uid="{F4DB6A34-E7E0-4016-B676-377212E3E147}"/>
-    <hyperlink ref="K8" r:id="rId13" xr:uid="{5F5BE1C5-E780-43CD-A79E-3431C36D8A75}"/>
-    <hyperlink ref="J7" r:id="rId14" display="https://www.digikey.ca/en/products/detail/on-semiconductor/NCP114ASN330T1G/6560605" xr:uid="{546FD292-A49B-4482-B45F-1FEFE661BFE5}"/>
-    <hyperlink ref="J6" r:id="rId15" xr:uid="{E58541F8-329D-44F3-BE17-DDA089A4DA84}"/>
+    <hyperlink ref="K8" r:id="rId1" xr:uid="{5F5BE1C5-E780-43CD-A79E-3431C36D8A75}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{50C563C5-5529-49E7-B981-8E3935447E88}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{30512338-C18F-4C1B-BA1C-8750803A87FA}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{B77F362C-F389-48B4-B69E-814CC8C3C6A5}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{63BD6AA9-05E1-47DB-829F-51E06E974AF5}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{970A0BF8-84C4-4080-9C8C-2605A5CADABD}"/>
+    <hyperlink ref="J14" r:id="rId7" xr:uid="{80F45E7B-F3D4-4D51-B1E9-DD05CA47DB12}"/>
+    <hyperlink ref="J13" r:id="rId8" xr:uid="{11A59C22-5B1A-423C-A11C-64FC560D83AD}"/>
+    <hyperlink ref="J15" r:id="rId9" xr:uid="{AA4E1286-4915-496B-B5A7-5C42DDE36BA3}"/>
+    <hyperlink ref="J7" r:id="rId10" xr:uid="{E628435E-0BFB-47FA-86B1-34F41CCC5A46}"/>
+    <hyperlink ref="J6" r:id="rId11" xr:uid="{A99B65C7-3937-465D-AC38-C8ADDBF1B86B}"/>
+    <hyperlink ref="J8" r:id="rId12" xr:uid="{9F452534-E4C4-4CE1-A86F-4C2ACC1F396F}"/>
+    <hyperlink ref="J12" r:id="rId13" xr:uid="{DCA8AC2C-7032-42F7-B019-2F5D8684B3FA}"/>
+    <hyperlink ref="J11" r:id="rId14" xr:uid="{5B9D1A35-D884-4750-BB2D-0E2F9C5012E9}"/>
+    <hyperlink ref="J10" r:id="rId15" xr:uid="{2EC7B85B-475E-44CD-970C-F86A181D5E4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Jacdac_3D_Magnetometer_BOM.xlsx
+++ b/Components/Jacdac_3D_Magnetometer_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-3D-Magnetometer\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29EAED8-3C96-4508-AAA1-5D3B94C96ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1771C-B97F-41AD-821B-7F6F177E2A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="150">
   <si>
     <t>Index</t>
   </si>
@@ -331,30 +331,9 @@
     <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_YONGYUTAI-XC6206-3-3V_C3015484.html</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
     <t>470R</t>
   </si>
   <si>
-    <t>C374403</t>
-  </si>
-  <si>
-    <t>AR03BTC4700</t>
-  </si>
-  <si>
-    <t>RES 470 OHM 0.1% 1/8W 0603</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR03BTC4700_C374403.html</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3,R4</t>
-  </si>
-  <si>
     <t>C108793</t>
   </si>
   <si>
@@ -370,23 +349,146 @@
     <t>4.7uF</t>
   </si>
   <si>
-    <t>C342959</t>
-  </si>
-  <si>
-    <t>C1608X7S1A475KT000E</t>
-  </si>
-  <si>
-    <t>CAP CER 4.7UF 10V X5R 0603</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_TDK-C1608X7S1A475KT000E_C342959.html</t>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Vishay-Intertech-CRCW0402470RFKED_C482182.html</t>
+  </si>
+  <si>
+    <t>CRCW0402470RFKED</t>
+  </si>
+  <si>
+    <t>C482182</t>
+  </si>
+  <si>
+    <t>RES 470 OHM 1% 0402</t>
+  </si>
+  <si>
+    <t>RES 150 OHM 0.1% 0402</t>
+  </si>
+  <si>
+    <t>AR02BTC1500</t>
+  </si>
+  <si>
+    <t>C319855</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR02BTC1500_C319855.html</t>
+  </si>
+  <si>
+    <t>CRCW0402220RFKED</t>
+  </si>
+  <si>
+    <t>C482103</t>
+  </si>
+  <si>
+    <t>RES 220 OHM 1% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Vishay-Intertech-CRCW0402220RFKED_C482103.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR02BTC4701_C317921.html</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>C2,C3</t>
+  </si>
+  <si>
+    <t>C1,C4</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>C342983</t>
+  </si>
+  <si>
+    <t>10V 4.7uF X5R ±10% 0402</t>
+  </si>
+  <si>
+    <t>C1005X5R1A475KTJ00E</t>
+  </si>
+  <si>
+    <t>50V 33pF C0G ±2% 0402</t>
+  </si>
+  <si>
+    <t>GJM1555C1H330GB01D</t>
+  </si>
+  <si>
+    <t>C76905</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GJM1555C1H330GB01D_C76905.html</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_TDK-C1005X5R1H104KT000F_C361202.html</t>
+  </si>
+  <si>
+    <t>50V 100nF X5R ±10% 0402</t>
+  </si>
+  <si>
+    <t>C1005X5R1H104KT000F</t>
+  </si>
+  <si>
+    <t>C361202</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Ferrite-Beads_TDK-MMZ1005S102ET000_C275423.html</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 250mA 1 1Ω 1kΩ@100MHz ±25% 0402</t>
+  </si>
+  <si>
+    <t>MMZ1005S102ET000</t>
+  </si>
+  <si>
+    <t>C275423</t>
+  </si>
+  <si>
+    <t>1kΩ @ 100MHz</t>
+  </si>
+  <si>
+    <t>R3,R5</t>
+  </si>
+  <si>
+    <t>LED (D1)</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-ARG02BTC1002_C2902636.html</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 0.1% 0402</t>
+  </si>
+  <si>
+    <t>ARG02BTC1002</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>C2902636</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +627,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1821,10 +1929,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43278F0E-4F1D-41EF-96D6-B569B0A7AA6A}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,269 +1982,269 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="H2" s="1">
-        <v>3.1600000000000003E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="I2" s="1">
         <f>H2*B2</f>
-        <v>3.1600000000000003E-2</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>143</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="H3" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I11" si="0">H3*B3</f>
-        <v>3.6999999999999998E-2</v>
+        <f>H3*B3</f>
+        <v>4.0899999999999999E-2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="H4" s="1">
-        <v>2.9000000000000001E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9000000000000001E-2</v>
+        <f>H4*B4</f>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="H5" s="1">
-        <v>8.8999999999999999E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>1.78E-2</v>
+        <f t="shared" ref="I5:I8" si="0">H5*B5</f>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1">
-        <v>0.98</v>
+        <v>3.27</v>
       </c>
       <c r="I6" s="1">
         <f>H6*B6</f>
-        <v>0.98</v>
+        <v>3.27</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>94</v>
+        <v>47</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I7" s="1">
+        <f>H7*B7</f>
+        <v>0.98</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="1">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3.27</v>
-      </c>
-      <c r="I8" s="1">
-        <f>H8*B8</f>
-        <v>3.27</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>136</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="H9" s="1">
-        <v>0.03</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I11" si="1">H9*B9</f>
-        <v>0.03</v>
+        <f>H9*B9</f>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2147,29 +2255,29 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="H10" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.14400000000000002</v>
+        <f t="shared" ref="I10:I11" si="1">H10*B10</f>
+        <v>0.14280000000000001</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2180,189 +2288,156 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="H11" s="1">
-        <v>1.77E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
-        <v>1.77E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="H12" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="I12" s="1">
-        <f>H12*B12</f>
-        <v>1.7999999999999999E-2</v>
+        <f t="shared" ref="I12" si="2">H12*B12</f>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="H13" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13:I14" si="2">H13*B13</f>
-        <v>2.8000000000000001E-2</v>
+        <f>H13*B13</f>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1">
-        <v>4.4499999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="2"/>
-        <v>8.8999999999999996E-2</v>
+        <f>H14*B14</f>
+        <v>0.03</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="I15" s="1">
-        <f>H15*B15</f>
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <f>SUM(I2:I15)</f>
-        <v>4.7618</v>
+      <c r="I17" s="1">
+        <f>SUM(I2:I14)</f>
+        <v>4.7384000000000013</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1" xr:uid="{5F5BE1C5-E780-43CD-A79E-3431C36D8A75}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{50C563C5-5529-49E7-B981-8E3935447E88}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{30512338-C18F-4C1B-BA1C-8750803A87FA}"/>
-    <hyperlink ref="J3" r:id="rId4" xr:uid="{B77F362C-F389-48B4-B69E-814CC8C3C6A5}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{63BD6AA9-05E1-47DB-829F-51E06E974AF5}"/>
-    <hyperlink ref="J9" r:id="rId6" xr:uid="{970A0BF8-84C4-4080-9C8C-2605A5CADABD}"/>
-    <hyperlink ref="J14" r:id="rId7" xr:uid="{80F45E7B-F3D4-4D51-B1E9-DD05CA47DB12}"/>
-    <hyperlink ref="J13" r:id="rId8" xr:uid="{11A59C22-5B1A-423C-A11C-64FC560D83AD}"/>
-    <hyperlink ref="J15" r:id="rId9" xr:uid="{AA4E1286-4915-496B-B5A7-5C42DDE36BA3}"/>
-    <hyperlink ref="J7" r:id="rId10" xr:uid="{E628435E-0BFB-47FA-86B1-34F41CCC5A46}"/>
-    <hyperlink ref="J6" r:id="rId11" xr:uid="{A99B65C7-3937-465D-AC38-C8ADDBF1B86B}"/>
-    <hyperlink ref="J8" r:id="rId12" xr:uid="{9F452534-E4C4-4CE1-A86F-4C2ACC1F396F}"/>
-    <hyperlink ref="J12" r:id="rId13" xr:uid="{DCA8AC2C-7032-42F7-B019-2F5D8684B3FA}"/>
-    <hyperlink ref="J11" r:id="rId14" xr:uid="{5B9D1A35-D884-4750-BB2D-0E2F9C5012E9}"/>
-    <hyperlink ref="J10" r:id="rId15" xr:uid="{2EC7B85B-475E-44CD-970C-F86A181D5E4E}"/>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{5F5BE1C5-E780-43CD-A79E-3431C36D8A75}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{B77F362C-F389-48B4-B69E-814CC8C3C6A5}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{63BD6AA9-05E1-47DB-829F-51E06E974AF5}"/>
+    <hyperlink ref="J14" r:id="rId4" xr:uid="{970A0BF8-84C4-4080-9C8C-2605A5CADABD}"/>
+    <hyperlink ref="J12" r:id="rId5" xr:uid="{11A59C22-5B1A-423C-A11C-64FC560D83AD}"/>
+    <hyperlink ref="J13" r:id="rId6" xr:uid="{AA4E1286-4915-496B-B5A7-5C42DDE36BA3}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{E628435E-0BFB-47FA-86B1-34F41CCC5A46}"/>
+    <hyperlink ref="J7" r:id="rId8" xr:uid="{A99B65C7-3937-465D-AC38-C8ADDBF1B86B}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{9F452534-E4C4-4CE1-A86F-4C2ACC1F396F}"/>
+    <hyperlink ref="J9" r:id="rId10" xr:uid="{DCA8AC2C-7032-42F7-B019-2F5D8684B3FA}"/>
+    <hyperlink ref="J11" r:id="rId11" xr:uid="{5B9D1A35-D884-4750-BB2D-0E2F9C5012E9}"/>
+    <hyperlink ref="J10" r:id="rId12" xr:uid="{2EC7B85B-475E-44CD-970C-F86A181D5E4E}"/>
+    <hyperlink ref="J4" r:id="rId13" xr:uid="{30512338-C18F-4C1B-BA1C-8750803A87FA}"/>
+    <hyperlink ref="J2" r:id="rId14" xr:uid="{E6CC35AA-AB8D-4D7A-8D4B-C91BF1250F9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Jacdac_3D_Magnetometer_BOM.xlsx
+++ b/Components/Jacdac_3D_Magnetometer_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-3D-Magnetometer\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C1771C-B97F-41AD-821B-7F6F177E2A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA157A3-AE1C-4041-899C-FF1956301AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RevA" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="156">
   <si>
     <t>Index</t>
   </si>
@@ -319,18 +319,9 @@
     <t>https://lcsc.com/product-detail/ST-Microelectronics_STMicroelectronics-STM32G030F6P6_C724040.html</t>
   </si>
   <si>
-    <t>C3015484</t>
-  </si>
-  <si>
     <t>XC6206-3.3V</t>
   </si>
   <si>
-    <t>IC REG LINEAR 3.3V SOT-23</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_YONGYUTAI-XC6206-3-3V_C3015484.html</t>
-  </si>
-  <si>
     <t>470R</t>
   </si>
   <si>
@@ -373,21 +364,6 @@
     <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR02BTC1500_C319855.html</t>
   </si>
   <si>
-    <t>CRCW0402220RFKED</t>
-  </si>
-  <si>
-    <t>C482103</t>
-  </si>
-  <si>
-    <t>RES 220 OHM 1% 0402</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Vishay-Intertech-CRCW0402220RFKED_C482103.html</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR02BTC4701_C317921.html</t>
-  </si>
-  <si>
     <t>IC2</t>
   </si>
   <si>
@@ -466,9 +442,6 @@
     <t>R3,R5</t>
   </si>
   <si>
-    <t>LED (D1)</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-ARG02BTC1002_C2902636.html</t>
   </si>
   <si>
@@ -482,6 +455,51 @@
   </si>
   <si>
     <t>C2902636</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>https://www.arrow.com/en/products/tlv493da1b6htsa2/infineon-technologies-ag?q=TLV493DA1B6HTSA2</t>
+  </si>
+  <si>
+    <t>TLV493DA1B6HTSA2/C126688</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_TDK-C1005X5R1A475KTJ00E_C342983.html</t>
+  </si>
+  <si>
+    <t>BAT54S</t>
+  </si>
+  <si>
+    <t>C328578</t>
+  </si>
+  <si>
+    <t>BAT54S,23</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_Foshan-Blue-Rocket-Elec-BAT54S_C328578.html</t>
+  </si>
+  <si>
+    <t>C317911</t>
+  </si>
+  <si>
+    <t>AR02BTC2200</t>
+  </si>
+  <si>
+    <t>RES 220 OHM 0.1% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR02BTC2200_C317911.html</t>
+  </si>
+  <si>
+    <t>C2891841</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V  SOT-23-3L</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_YONGYUTAI-XC6206-3-3V_C2891841.html</t>
   </si>
 </sst>
 </file>
@@ -1381,23 +1399,23 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="77.85546875" customWidth="1"/>
+    <col min="10" max="10" width="77.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1462,7 +1480,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1495,7 +1513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1528,7 +1546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1561,7 +1579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1594,7 +1612,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1627,7 +1645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1663,7 +1681,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1696,7 +1714,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1729,7 +1747,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1762,7 +1780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1795,7 +1813,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1828,7 +1846,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1861,7 +1879,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1896,7 +1914,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.75">
       <c r="H18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1932,23 +1950,23 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="77.85546875" customWidth="1"/>
+    <col min="10" max="10" width="77.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1980,9 +1998,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1991,16 +2009,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H2" s="1">
         <v>2.3300000000000001E-2</v>
@@ -2010,63 +2028,63 @@
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="H3" s="1">
-        <v>4.0899999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="I3" s="1">
         <f>H3*B3</f>
-        <v>4.0899999999999999E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H4" s="1">
         <v>3.9399999999999998E-2</v>
@@ -2076,57 +2094,57 @@
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H5" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I8" si="0">H5*B5</f>
+        <f t="shared" ref="I5" si="0">H5*B5</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>48</v>
@@ -2142,21 +2160,21 @@
         <v>3.27</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>51</v>
@@ -2181,9 +2199,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2192,95 +2210,95 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="H8" s="1">
-        <v>4.0800000000000003E-2</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
+        <f t="shared" ref="I8" si="1">H8*B8</f>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H9" s="1">
         <v>2.2700000000000001E-2</v>
       </c>
       <c r="I9" s="1">
         <f>H9*B9</f>
-        <v>2.2700000000000001E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H10" s="1">
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ref="I10:I11" si="1">H10*B10</f>
-        <v>0.14280000000000001</v>
+        <f t="shared" ref="I10:I12" si="2">H10*B10</f>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2288,34 +2306,34 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H11" s="1">
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2324,49 +2342,49 @@
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H12" s="1">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" ref="I12" si="2">H12*B12</f>
+        <f t="shared" si="2"/>
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H13" s="1">
         <v>2.8899999999999999E-2</v>
@@ -2376,68 +2394,68 @@
         <v>2.8899999999999999E-2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="1">
-        <v>0.03</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="I14" s="1">
         <f>H14*B14</f>
-        <v>0.03</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.75">
       <c r="H17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="1">
         <f>SUM(I2:I14)</f>
-        <v>4.7384000000000013</v>
+        <v>4.7420999999999998</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K6" r:id="rId1" xr:uid="{5F5BE1C5-E780-43CD-A79E-3431C36D8A75}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{B77F362C-F389-48B4-B69E-814CC8C3C6A5}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{63BD6AA9-05E1-47DB-829F-51E06E974AF5}"/>
-    <hyperlink ref="J14" r:id="rId4" xr:uid="{970A0BF8-84C4-4080-9C8C-2605A5CADABD}"/>
-    <hyperlink ref="J12" r:id="rId5" xr:uid="{11A59C22-5B1A-423C-A11C-64FC560D83AD}"/>
-    <hyperlink ref="J13" r:id="rId6" xr:uid="{AA4E1286-4915-496B-B5A7-5C42DDE36BA3}"/>
-    <hyperlink ref="J8" r:id="rId7" xr:uid="{E628435E-0BFB-47FA-86B1-34F41CCC5A46}"/>
-    <hyperlink ref="J7" r:id="rId8" xr:uid="{A99B65C7-3937-465D-AC38-C8ADDBF1B86B}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{9F452534-E4C4-4CE1-A86F-4C2ACC1F396F}"/>
-    <hyperlink ref="J9" r:id="rId10" xr:uid="{DCA8AC2C-7032-42F7-B019-2F5D8684B3FA}"/>
-    <hyperlink ref="J11" r:id="rId11" xr:uid="{5B9D1A35-D884-4750-BB2D-0E2F9C5012E9}"/>
-    <hyperlink ref="J10" r:id="rId12" xr:uid="{2EC7B85B-475E-44CD-970C-F86A181D5E4E}"/>
-    <hyperlink ref="J4" r:id="rId13" xr:uid="{30512338-C18F-4C1B-BA1C-8750803A87FA}"/>
-    <hyperlink ref="J2" r:id="rId14" xr:uid="{E6CC35AA-AB8D-4D7A-8D4B-C91BF1250F9F}"/>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{C3F6A1E7-17D5-4BD8-B620-4DB566EC6693}"/>
+    <hyperlink ref="J14" r:id="rId2" xr:uid="{2A4601CC-2630-4340-8B3F-BBC3CDC591B3}"/>
+    <hyperlink ref="J12" r:id="rId3" xr:uid="{83F20078-4346-4B10-ABC4-0E1A56F67129}"/>
+    <hyperlink ref="J13" r:id="rId4" xr:uid="{BCB82A1D-6016-4BCB-B051-56B197FB54F1}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{ADCE8DC4-6ABA-4C51-8E5E-663460578FC0}"/>
+    <hyperlink ref="J6" r:id="rId6" xr:uid="{1923C6FE-FCDF-4FB9-8229-AEB2C733CB31}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{4B54B73F-B526-4ED4-9F1C-DA8D30D75740}"/>
+    <hyperlink ref="J11" r:id="rId8" xr:uid="{934F2DB3-EF58-45F9-9E3E-8292BCD09FBF}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{7B3307EE-4627-4284-93F8-CE882D51E2E8}"/>
+    <hyperlink ref="J5" r:id="rId10" xr:uid="{8C21FDC5-1B67-4984-9FF5-DC10ACBE6D74}"/>
+    <hyperlink ref="J3" r:id="rId11" xr:uid="{3C0C647D-62D9-4751-85D2-083E8EA409A8}"/>
+    <hyperlink ref="J4" r:id="rId12" xr:uid="{1DC47656-7CA5-420A-9C29-D83141377651}"/>
+    <hyperlink ref="J2" r:id="rId13" xr:uid="{EDFEF2BB-D179-44F3-B37A-01850665B5C9}"/>
+    <hyperlink ref="J8" r:id="rId14" xr:uid="{A387F2B4-EB41-49CD-8548-F2C9E1B5ABDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
